--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>86.218417084838123</v>
+        <v>86.218417157636651</v>
       </c>
       <c r="C2">
-        <v>75.056349503106844</v>
+        <v>75.056349551386106</v>
       </c>
       <c r="D2">
-        <v>67.030250896944992</v>
+        <v>67.03025091601863</v>
       </c>
       <c r="E2">
-        <v>53.196407482284613</v>
+        <v>53.196407461521169</v>
       </c>
       <c r="F2">
-        <v>69.939680865112607</v>
+        <v>69.939680937555721</v>
       </c>
       <c r="G2">
-        <v>86.669954122372403</v>
+        <v>86.66995415501097</v>
       </c>
       <c r="H2">
-        <v>70.196751665744245</v>
+        <v>70.196751780636163</v>
       </c>
       <c r="I2">
-        <v>72.654781336795381</v>
+        <v>72.654781326733215</v>
       </c>
       <c r="J2">
-        <v>66.295026587352396</v>
+        <v>66.295026578554143</v>
       </c>
       <c r="K2">
-        <v>87.23958127484417</v>
+        <v>87.239581310454312</v>
       </c>
       <c r="L2">
-        <v>94.874862666438148</v>
+        <v>94.874862782273155</v>
       </c>
       <c r="M2">
-        <v>117.84139186424656</v>
+        <v>117.84139186523717</v>
       </c>
       <c r="N2">
-        <v>69.672653859080341</v>
+        <v>69.672653913720936</v>
       </c>
       <c r="O2">
-        <v>61.109417485201512</v>
+        <v>61.109417642114785</v>
       </c>
       <c r="P2">
-        <v>57.995664042744821</v>
+        <v>57.995664113561595</v>
       </c>
       <c r="Q2">
-        <v>99.38953460178773</v>
+        <v>99.389534601642268</v>
       </c>
       <c r="R2">
-        <v>134.59856791144949</v>
+        <v>134.59856790732474</v>
       </c>
       <c r="S2">
-        <v>45.976994612337698</v>
+        <v>45.97699478194162</v>
       </c>
       <c r="T2">
-        <v>44.779250371360199</v>
+        <v>44.779250349507564</v>
       </c>
       <c r="U2">
-        <v>99.482164425357198</v>
+        <v>99.482164424561915</v>
       </c>
       <c r="V2">
-        <v>82.891706051499852</v>
+        <v>82.891706052281208</v>
       </c>
       <c r="W2">
-        <v>182.99382322351966</v>
+        <v>182.99382321595971</v>
       </c>
       <c r="X2">
-        <v>91.681982565206681</v>
+        <v>91.681982564135467</v>
       </c>
       <c r="Y2">
-        <v>29.429038131085605</v>
+        <v>29.429038188625945</v>
       </c>
       <c r="Z2">
-        <v>65.359876126120895</v>
+        <v>65.359876126668311</v>
       </c>
       <c r="AA2">
-        <v>50.152250493393133</v>
+        <v>50.152250667726875</v>
       </c>
       <c r="AB2">
-        <v>68.068646523471571</v>
+        <v>68.068646523337762</v>
       </c>
       <c r="AC2">
-        <v>99.744423191260452</v>
+        <v>99.74442319121988</v>
       </c>
       <c r="AD2">
-        <v>38.862134541504759</v>
+        <v>38.862134640349133</v>
       </c>
       <c r="AE2">
-        <v>73.089579185425066</v>
+        <v>73.089579190730333</v>
       </c>
       <c r="AF2">
-        <v>60.546508651798078</v>
+        <v>60.546508743591332</v>
       </c>
       <c r="AG2">
-        <v>59.281109762280728</v>
+        <v>59.281109967513423</v>
       </c>
       <c r="AH2">
-        <v>52.426575161224498</v>
+        <v>52.426575230476168</v>
       </c>
       <c r="AI2">
-        <v>68.191231101866435</v>
+        <v>68.191231102429086</v>
       </c>
       <c r="AJ2">
-        <v>68.996047200246352</v>
+        <v>68.996047316605896</v>
       </c>
       <c r="AK2">
-        <v>67.882338581826247</v>
+        <v>67.882338625918777</v>
       </c>
       <c r="AL2">
-        <v>105.23179901793651</v>
+        <v>105.23179901713023</v>
       </c>
       <c r="AM2">
-        <v>53.545902582479819</v>
+        <v>53.545902586629182</v>
       </c>
       <c r="AN2">
-        <v>59.216798376392056</v>
+        <v>59.216798376668734</v>
       </c>
       <c r="AO2">
-        <v>35.277523167199334</v>
+        <v>35.277522841739199</v>
       </c>
       <c r="AP2">
-        <v>50.637660514627711</v>
+        <v>50.637660607626934</v>
       </c>
       <c r="AQ2">
-        <v>104.77849819189653</v>
+        <v>104.77849819200358</v>
       </c>
       <c r="AR2">
-        <v>41.243162755162572</v>
+        <v>41.243162633306582</v>
       </c>
       <c r="AS2">
-        <v>43.250062997251213</v>
+        <v>43.250063172298539</v>
       </c>
       <c r="AT2">
-        <v>70.420263154766843</v>
+        <v>70.420263154996505</v>
       </c>
       <c r="AU2">
-        <v>54.112116493104068</v>
+        <v>54.11211666212624</v>
       </c>
       <c r="AV2">
-        <v>100.36808097919763</v>
+        <v>100.36808097654048</v>
       </c>
       <c r="AW2">
-        <v>87.215859042499687</v>
+        <v>87.215859041560506</v>
       </c>
       <c r="AX2">
-        <v>46.251115761239227</v>
+        <v>46.25111590954679</v>
       </c>
       <c r="AY2">
-        <v>27.948600629178195</v>
+        <v>27.948600759762243</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>81.796970012761491</v>
+        <v>81.79697002428648</v>
       </c>
       <c r="C3">
-        <v>79.180000673947632</v>
+        <v>79.180000674072929</v>
       </c>
       <c r="D3">
-        <v>46.248626171526745</v>
+        <v>46.248626275273224</v>
       </c>
       <c r="E3">
-        <v>57.902420454263506</v>
+        <v>57.902420313423917</v>
       </c>
       <c r="F3">
-        <v>77.824322464537332</v>
+        <v>77.824322531951523</v>
       </c>
       <c r="G3">
-        <v>60.775890943951282</v>
+        <v>60.775890992776105</v>
       </c>
       <c r="H3">
-        <v>103.29449802961031</v>
+        <v>103.29449802981591</v>
       </c>
       <c r="I3">
-        <v>85.207566883801675</v>
+        <v>85.20756689871159</v>
       </c>
       <c r="J3">
-        <v>56.13746166317258</v>
+        <v>56.137461773685281</v>
       </c>
       <c r="K3">
-        <v>-9.6393367620064456</v>
+        <v>-9.6393367376193311</v>
       </c>
       <c r="L3">
-        <v>57.175400138577551</v>
+        <v>57.175400205304157</v>
       </c>
       <c r="M3">
-        <v>91.123822918173758</v>
+        <v>91.124942740622245</v>
       </c>
       <c r="N3">
-        <v>69.10423550986188</v>
+        <v>69.104235578951389</v>
       </c>
       <c r="O3">
-        <v>169.0336004274518</v>
+        <v>169.03360042650343</v>
       </c>
       <c r="P3">
-        <v>56.017149486395382</v>
+        <v>56.017149500721672</v>
       </c>
       <c r="Q3">
-        <v>73.94368083170167</v>
+        <v>73.943680889685254</v>
       </c>
       <c r="R3">
-        <v>112.5050451801193</v>
+        <v>112.50504518107674</v>
       </c>
       <c r="S3">
-        <v>44.11907073577143</v>
+        <v>44.119070830317192</v>
       </c>
       <c r="T3">
-        <v>50.239352384378456</v>
+        <v>50.239352460802309</v>
       </c>
       <c r="U3">
-        <v>61.042176182773098</v>
+        <v>61.04217624479962</v>
       </c>
       <c r="V3">
-        <v>58.46922225059653</v>
+        <v>58.46922222411407</v>
       </c>
       <c r="W3">
-        <v>112.47849796740448</v>
+        <v>112.47849796204576</v>
       </c>
       <c r="X3">
-        <v>112.37632164982152</v>
+        <v>112.37632164988867</v>
       </c>
       <c r="Y3">
-        <v>16.101591572227562</v>
+        <v>16.101591749009792</v>
       </c>
       <c r="Z3">
-        <v>45.146578699236805</v>
+        <v>45.146578698208984</v>
       </c>
       <c r="AA3">
-        <v>53.678187150190773</v>
+        <v>53.67818711806467</v>
       </c>
       <c r="AB3">
-        <v>54.849892642362128</v>
+        <v>54.849892744315234</v>
       </c>
       <c r="AC3">
-        <v>53.459763215975833</v>
+        <v>53.459763363783964</v>
       </c>
       <c r="AD3">
-        <v>44.038339482569363</v>
+        <v>44.038339734192142</v>
       </c>
       <c r="AE3">
-        <v>55.715358352582832</v>
+        <v>55.715358554866789</v>
       </c>
       <c r="AF3">
-        <v>67.876471123707631</v>
+        <v>67.87647112326492</v>
       </c>
       <c r="AG3">
-        <v>72.719992068698716</v>
+        <v>72.719992068067398</v>
       </c>
       <c r="AH3">
-        <v>81.676721319695716</v>
+        <v>81.676721316540593</v>
       </c>
       <c r="AI3">
-        <v>16.882759566566815</v>
+        <v>16.882761592439451</v>
       </c>
       <c r="AJ3">
-        <v>47.755127177561576</v>
+        <v>47.755127336359557</v>
       </c>
       <c r="AK3">
-        <v>64.226894746333542</v>
+        <v>64.226895022209106</v>
       </c>
       <c r="AL3">
-        <v>66.866141585821538</v>
+        <v>66.866141586049508</v>
       </c>
       <c r="AM3">
-        <v>66.980318469317211</v>
+        <v>66.980318470352302</v>
       </c>
       <c r="AN3">
-        <v>151.0049822250171</v>
+        <v>151.00498222415135</v>
       </c>
       <c r="AO3">
-        <v>47.753070199182183</v>
+        <v>47.75307020301301</v>
       </c>
       <c r="AP3">
-        <v>87.593617779996094</v>
+        <v>87.59361777407203</v>
       </c>
       <c r="AQ3">
-        <v>68.292451521000402</v>
+        <v>68.292451513061863</v>
       </c>
       <c r="AR3">
-        <v>33.742231960492894</v>
+        <v>33.742231843679868</v>
       </c>
       <c r="AS3">
-        <v>61.573291704325648</v>
+        <v>61.573291670750471</v>
       </c>
       <c r="AT3">
-        <v>41.359049130392457</v>
+        <v>41.359049213828982</v>
       </c>
       <c r="AU3">
-        <v>73.124068524403398</v>
+        <v>73.124068737651129</v>
       </c>
       <c r="AV3">
-        <v>84.55347438084992</v>
+        <v>84.553474377412087</v>
       </c>
       <c r="AW3">
-        <v>85.530041951920794</v>
+        <v>85.530041953533058</v>
       </c>
       <c r="AX3">
-        <v>73.888390814555933</v>
+        <v>73.88839081380894</v>
       </c>
       <c r="AY3">
-        <v>17.913559278409878</v>
+        <v>17.913559413414426</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>86.218417157636651</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>75.056349551386106</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>67.03025091601863</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>53.196407461521169</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>69.939680937555721</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>86.66995415501097</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>70.196751780636163</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>72.654781326733215</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>66.295026578554143</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>87.239581310454312</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>94.874862782273155</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>117.84139186523717</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>69.672653913720936</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>61.109417642114785</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>57.995664113561595</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>99.389534601642268</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>134.59856790732474</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>45.97699478194162</v>
+        <v>67.795224535246831</v>
       </c>
       <c r="T2">
         <v>44.779250349507564</v>
@@ -573,7 +462,7 @@
         <v>99.482164424561915</v>
       </c>
       <c r="V2">
-        <v>82.891706052281208</v>
+        <v>78.410453948910629</v>
       </c>
       <c r="W2">
         <v>182.99382321595971</v>
@@ -588,55 +477,55 @@
         <v>65.359876126668311</v>
       </c>
       <c r="AA2">
-        <v>50.152250667726875</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>68.068646523337762</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>99.74442319121988</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>38.862134640349133</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>73.089579190730333</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>60.546508743591332</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>59.281109967513423</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>52.426575230476168</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>68.191231102429086</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>68.996047316605896</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>67.882338625918777</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>105.23179901713023</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>53.545902586629182</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>59.216798376668734</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>35.277522841739199</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>50.637660607626934</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>104.77849819200358</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>41.243162633306582</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>81.79697002428648</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>79.180000674072929</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>46.248626275273224</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>57.902420313423917</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>77.824322531951523</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>60.775890992776105</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>103.29449802981591</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>85.20756689871159</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>56.137461773685281</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-9.6393367376193311</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>57.175400205304157</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>91.124942740622245</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>69.104235578951389</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>169.03360042650343</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>56.017149500721672</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>73.943680889685254</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>112.50504518107674</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>44.119070830317192</v>
@@ -743,55 +629,55 @@
         <v>45.146578698208984</v>
       </c>
       <c r="AA3">
-        <v>53.67818711806467</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>54.849892744315234</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>53.459763363783964</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>44.038339734192142</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>55.715358554866789</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>67.87647112326492</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>72.719992068067398</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>81.676721316540593</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>16.882761592439451</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>47.755127336359557</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>64.226895022209106</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>66.866141586049508</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>66.980318470352302</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>151.00498222415135</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>47.75307020301301</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>87.59361777407203</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>68.292451513061863</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>33.742231843679868</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>104.22004634658961</v>
+        <v>61.478991029857156</v>
       </c>
       <c r="C2">
-        <v>87.155981779876271</v>
+        <v>73.205502253884291</v>
       </c>
       <c r="D2">
-        <v>72.941289926542538</v>
+        <v>57.138090646328997</v>
       </c>
       <c r="E2">
-        <v>82.938717821710625</v>
+        <v>78.809580296614044</v>
       </c>
       <c r="F2">
         <v>73.848544320604887</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>92.46867100107886</v>
+        <v>47.41038808743189</v>
       </c>
       <c r="C3">
-        <v>77.145544830191966</v>
+        <v>62.682346474154272</v>
       </c>
       <c r="D3">
-        <v>74.267952728687575</v>
+        <v>57.619929157500792</v>
       </c>
       <c r="E3">
-        <v>73.620578880490399</v>
+        <v>83.748390417755843</v>
       </c>
       <c r="F3">
         <v>78.782536214564402</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>98.362638467500162</v>
+        <v>89.128157874044362</v>
       </c>
       <c r="C2">
-        <v>87.155981779876271</v>
+        <v>61.478991029857156</v>
       </c>
       <c r="D2">
-        <v>67.217824005166733</v>
+        <v>53.494888727437107</v>
       </c>
       <c r="E2">
-        <v>82.938717821710625</v>
+        <v>57.138090646328997</v>
       </c>
       <c r="F2">
         <v>73.848544320604887</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>92.46867100107886</v>
+        <v>74.317296857603409</v>
       </c>
       <c r="C3">
-        <v>75.607405976685612</v>
+        <v>47.41038808743189</v>
       </c>
       <c r="D3">
-        <v>73.647724047154227</v>
+        <v>46.774792690847164</v>
       </c>
       <c r="E3">
-        <v>40.880485831968834</v>
+        <v>57.619929157500792</v>
       </c>
       <c r="F3">
         <v>78.782536214564402</v>

--- a/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_elong_percent_SEE_Fuku_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>98.362638544158912</v>
+      </c>
+      <c r="C2">
+        <v>87.155981860540194</v>
+      </c>
+      <c r="D2">
+        <v>67.217824044955947</v>
+      </c>
+      <c r="E2">
+        <v>82.938717781854862</v>
+      </c>
+      <c r="F2">
+        <v>73.848544588182691</v>
+      </c>
+      <c r="G2">
+        <v>70.942148350045713</v>
+      </c>
+      <c r="H2">
+        <v>93.559437209736387</v>
+      </c>
+      <c r="I2">
+        <v>90.730742615611689</v>
+      </c>
+      <c r="J2">
+        <v>79.923964680879337</v>
+      </c>
+      <c r="K2">
+        <v>88.297995922722578</v>
+      </c>
+      <c r="L2">
+        <v>88.249765927791373</v>
+      </c>
+      <c r="M2">
+        <v>78.487371824256755</v>
+      </c>
+      <c r="N2">
         <v>89.128157874044362</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>61.478991029857156</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>101.73543254953195</v>
+      </c>
+      <c r="Q2">
+        <v>90.406049763504342</v>
+      </c>
+      <c r="R2">
+        <v>67.487822223524134</v>
+      </c>
+      <c r="T2">
+        <v>85.068910159655502</v>
+      </c>
+      <c r="U2">
+        <v>62.325360089767109</v>
+      </c>
+      <c r="V2">
+        <v>68.493564749757553</v>
+      </c>
+      <c r="W2">
+        <v>73.166342009211562</v>
+      </c>
+      <c r="X2">
+        <v>85.468475654702189</v>
+      </c>
+      <c r="Y2">
+        <v>56.914512600932241</v>
+      </c>
+      <c r="Z2">
+        <v>31.934855364191648</v>
+      </c>
+      <c r="AA2">
+        <v>51.711359318755804</v>
+      </c>
+      <c r="AB2">
+        <v>38.868828470414151</v>
+      </c>
+      <c r="AC2">
+        <v>71.021988025173528</v>
+      </c>
+      <c r="AD2">
+        <v>55.412997391541971</v>
+      </c>
+      <c r="AE2">
+        <v>78.277202275792973</v>
+      </c>
+      <c r="AF2">
+        <v>63.355130488797819</v>
+      </c>
+      <c r="AG2">
+        <v>69.871616058389264</v>
+      </c>
+      <c r="AH2">
+        <v>58.202004276377018</v>
+      </c>
+      <c r="AI2">
+        <v>36.202242445745284</v>
+      </c>
+      <c r="AJ2">
+        <v>74.825323454551423</v>
+      </c>
+      <c r="AK2">
+        <v>82.287399389657892</v>
+      </c>
+      <c r="AL2">
+        <v>80.12430270025888</v>
+      </c>
+      <c r="AM2">
         <v>53.494888727437107</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>57.138090646328997</v>
       </c>
-      <c r="F2">
-        <v>73.848544320604887</v>
-      </c>
-      <c r="G2">
-        <v>70.942148126789391</v>
-      </c>
-      <c r="H2">
-        <v>93.559437147046367</v>
-      </c>
-      <c r="I2">
-        <v>90.730742509891229</v>
-      </c>
-      <c r="J2">
-        <v>79.923964479642862</v>
-      </c>
-      <c r="K2">
-        <v>88.297995822094606</v>
-      </c>
-      <c r="L2">
-        <v>88.249765836282094</v>
-      </c>
-      <c r="M2">
-        <v>78.487371694055781</v>
-      </c>
-      <c r="N2">
-        <v>89.128157791575461</v>
-      </c>
-      <c r="O2">
-        <v>61.478990655047859</v>
-      </c>
-      <c r="P2">
-        <v>101.73543256001361</v>
-      </c>
-      <c r="Q2">
-        <v>90.406049663292379</v>
-      </c>
-      <c r="R2">
-        <v>67.487821861683372</v>
-      </c>
-      <c r="T2">
-        <v>85.068910265174509</v>
-      </c>
-      <c r="U2">
-        <v>62.325359629076779</v>
-      </c>
-      <c r="V2">
-        <v>68.493564407591549</v>
-      </c>
-      <c r="W2">
-        <v>73.166341738176911</v>
-      </c>
-      <c r="X2">
-        <v>85.468475502302397</v>
-      </c>
-      <c r="Y2">
-        <v>56.914512064956803</v>
-      </c>
-      <c r="Z2">
-        <v>31.934854842981782</v>
-      </c>
-      <c r="AA2">
-        <v>51.711358998567867</v>
-      </c>
-      <c r="AB2">
-        <v>38.868828236652661</v>
-      </c>
-      <c r="AC2">
-        <v>71.021987720413051</v>
-      </c>
-      <c r="AD2">
-        <v>55.412997210446299</v>
-      </c>
-      <c r="AE2">
-        <v>78.27720226576983</v>
-      </c>
-      <c r="AF2">
-        <v>63.355130188824823</v>
-      </c>
-      <c r="AG2">
-        <v>69.871615873601755</v>
-      </c>
-      <c r="AH2">
-        <v>58.202004080456859</v>
-      </c>
-      <c r="AI2">
-        <v>36.2022418625737</v>
-      </c>
-      <c r="AJ2">
-        <v>74.825323268480659</v>
-      </c>
-      <c r="AK2">
-        <v>82.287399171256865</v>
-      </c>
-      <c r="AL2">
-        <v>80.124302552470866</v>
-      </c>
-      <c r="AM2">
-        <v>53.494888294057809</v>
-      </c>
-      <c r="AN2">
-        <v>57.138090270170693</v>
-      </c>
       <c r="AO2">
-        <v>61.386206175674204</v>
+        <v>61.386206618932682</v>
       </c>
       <c r="AP2">
-        <v>61.621260980180573</v>
+        <v>61.621261305364861</v>
       </c>
       <c r="AQ2">
-        <v>78.809580119899252</v>
+        <v>78.809580296614044</v>
       </c>
       <c r="AR2">
-        <v>80.468370500121083</v>
+        <v>80.468370023885655</v>
       </c>
       <c r="AS2">
-        <v>79.047528803641057</v>
+        <v>79.047529064010803</v>
       </c>
       <c r="AT2">
-        <v>33.814413255222178</v>
+        <v>33.814413618240984</v>
       </c>
       <c r="AU2">
-        <v>85.436176604388919</v>
+        <v>85.436176907879712</v>
       </c>
       <c r="AV2">
-        <v>48.935427867480762</v>
+        <v>48.935428373466756</v>
       </c>
       <c r="AW2">
-        <v>54.746939610941183</v>
+        <v>54.746940222168419</v>
       </c>
       <c r="AX2">
-        <v>50.966637589321373</v>
+        <v>50.966637926438011</v>
       </c>
       <c r="AY2">
-        <v>45.789007288953265</v>
+        <v>45.78900768637466</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>92.468671354865123</v>
+      </c>
+      <c r="C3">
+        <v>75.607406195065863</v>
+      </c>
+      <c r="D3">
+        <v>73.647724399331736</v>
+      </c>
+      <c r="E3">
+        <v>40.88048645716399</v>
+      </c>
+      <c r="F3">
+        <v>78.782536362825013</v>
+      </c>
+      <c r="G3">
+        <v>70.308500926048708</v>
+      </c>
+      <c r="H3">
+        <v>79.267267221495544</v>
+      </c>
+      <c r="I3">
+        <v>93.081220707811582</v>
+      </c>
+      <c r="J3">
+        <v>75.315282559957325</v>
+      </c>
+      <c r="K3">
+        <v>78.73918584367901</v>
+      </c>
+      <c r="L3">
+        <v>75.355489542492094</v>
+      </c>
+      <c r="M3">
+        <v>75.32966252445263</v>
+      </c>
+      <c r="N3">
         <v>74.317296857603409</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>47.41038808743189</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>54.324270434124266</v>
+      </c>
+      <c r="Q3">
+        <v>89.249606316930084</v>
+      </c>
+      <c r="R3">
+        <v>62.682346474154272</v>
+      </c>
+      <c r="S3">
+        <v>72.084010813916379</v>
+      </c>
+      <c r="T3">
+        <v>67.459321416733232</v>
+      </c>
+      <c r="U3">
+        <v>63.015059263228167</v>
+      </c>
+      <c r="V3">
+        <v>81.593110551561239</v>
+      </c>
+      <c r="W3">
+        <v>81.975976101871055</v>
+      </c>
+      <c r="X3">
+        <v>72.699145778513497</v>
+      </c>
+      <c r="Y3">
+        <v>31.299809030950048</v>
+      </c>
+      <c r="Z3">
+        <v>31.95032928271279</v>
+      </c>
+      <c r="AA3">
+        <v>61.307641232784306</v>
+      </c>
+      <c r="AB3">
+        <v>60.916118347520097</v>
+      </c>
+      <c r="AC3">
+        <v>70.882787310814379</v>
+      </c>
+      <c r="AD3">
+        <v>58.252300871183174</v>
+      </c>
+      <c r="AE3">
+        <v>72.06696138406204</v>
+      </c>
+      <c r="AF3">
+        <v>60.683112459711573</v>
+      </c>
+      <c r="AG3">
+        <v>71.257805746138175</v>
+      </c>
+      <c r="AH3">
+        <v>74.38580225585288</v>
+      </c>
+      <c r="AI3">
+        <v>60.790875532816322</v>
+      </c>
+      <c r="AJ3">
+        <v>53.980836767070109</v>
+      </c>
+      <c r="AK3">
+        <v>74.285410164745855</v>
+      </c>
+      <c r="AL3">
+        <v>58.511901746207506</v>
+      </c>
+      <c r="AM3">
         <v>46.774792690847164</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>57.619929157500792</v>
       </c>
-      <c r="F3">
-        <v>78.782536214564402</v>
-      </c>
-      <c r="G3">
-        <v>70.308500800362935</v>
-      </c>
-      <c r="H3">
-        <v>79.267267301264894</v>
-      </c>
-      <c r="I3">
-        <v>93.081220618436205</v>
-      </c>
-      <c r="J3">
-        <v>75.315282236168088</v>
-      </c>
-      <c r="K3">
-        <v>78.739185576658272</v>
-      </c>
-      <c r="L3">
-        <v>75.355489300804763</v>
-      </c>
-      <c r="M3">
-        <v>75.330872434316007</v>
-      </c>
-      <c r="N3">
-        <v>74.31729660955115</v>
-      </c>
-      <c r="O3">
-        <v>47.410387623606738</v>
-      </c>
-      <c r="P3">
-        <v>54.324269969796454</v>
-      </c>
-      <c r="Q3">
-        <v>89.249606207352187</v>
-      </c>
-      <c r="R3">
-        <v>62.682346144217519</v>
-      </c>
-      <c r="S3">
-        <v>72.084010563809073</v>
-      </c>
-      <c r="T3">
-        <v>67.459321131914564</v>
-      </c>
-      <c r="U3">
-        <v>63.015058850725971</v>
-      </c>
-      <c r="V3">
-        <v>81.593110451269226</v>
-      </c>
-      <c r="W3">
-        <v>81.975975938600016</v>
-      </c>
-      <c r="X3">
-        <v>72.699145568164255</v>
-      </c>
-      <c r="Y3">
-        <v>31.299808395390556</v>
-      </c>
-      <c r="Z3">
-        <v>31.950328819974157</v>
-      </c>
-      <c r="AA3">
-        <v>61.307641288321769</v>
-      </c>
-      <c r="AB3">
-        <v>60.916118164225161</v>
-      </c>
-      <c r="AC3">
-        <v>70.882787091339665</v>
-      </c>
-      <c r="AD3">
-        <v>58.252300594605735</v>
-      </c>
-      <c r="AE3">
-        <v>72.066961176681076</v>
-      </c>
-      <c r="AF3">
-        <v>60.683112098916872</v>
-      </c>
-      <c r="AG3">
-        <v>71.257805487403715</v>
-      </c>
-      <c r="AH3">
-        <v>74.385801983585679</v>
-      </c>
-      <c r="AI3">
-        <v>60.790875198943517</v>
-      </c>
-      <c r="AJ3">
-        <v>53.980836375486199</v>
-      </c>
-      <c r="AK3">
-        <v>74.285409945261208</v>
-      </c>
-      <c r="AL3">
-        <v>58.511901322508507</v>
-      </c>
-      <c r="AM3">
-        <v>46.774792160612492</v>
-      </c>
-      <c r="AN3">
-        <v>57.619928766299566</v>
-      </c>
       <c r="AO3">
-        <v>35.703372519703599</v>
+        <v>35.703373180679442</v>
       </c>
       <c r="AP3">
-        <v>56.564965460124043</v>
+        <v>56.564965751065003</v>
       </c>
       <c r="AQ3">
-        <v>83.748390253999105</v>
+        <v>83.748390417755843</v>
       </c>
       <c r="AR3">
-        <v>73.58433495384557</v>
+        <v>73.584334341964095</v>
       </c>
       <c r="AS3">
-        <v>67.232102067033452</v>
+        <v>67.232101992310263</v>
       </c>
       <c r="AT3">
-        <v>55.987805379507648</v>
+        <v>55.98780590587814</v>
       </c>
       <c r="AU3">
-        <v>99.3713655533207</v>
+        <v>99.371366226290547</v>
       </c>
       <c r="AV3">
-        <v>61.176147881866157</v>
+        <v>61.17614836767801</v>
       </c>
       <c r="AW3">
-        <v>63.70099378297698</v>
+        <v>63.700994098243179</v>
       </c>
       <c r="AX3">
-        <v>70.207909138764251</v>
+        <v>70.207909388519752</v>
       </c>
       <c r="AY3">
-        <v>37.705807148018501</v>
+        <v>37.705807849140967</v>
       </c>
     </row>
   </sheetData>
